--- a/Consolidated Output.xlsx
+++ b/Consolidated Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\DS4400-MalwareClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D972F224-DF28-42F6-B44A-835B7D87A8EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872509B9-3879-42F1-87C7-CAC502FDA9B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{DA785DF7-8727-4DB1-8708-E7A5F74B287B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Regularization</t>
+  </si>
+  <si>
+    <t>cValue</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13BA11F-17F9-4E14-A36E-9DAC90E4BB79}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,23 +1766,88 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3A9D12-D820-4697-87B3-175F9E6985A9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>0.75163999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.53151199999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.74453199999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.517119</v>
+      </c>
+      <c r="F3">
+        <v>0.75549500000000003</v>
+      </c>
+      <c r="G3">
+        <v>0.56235100000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Consolidated Output.xlsx
+++ b/Consolidated Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\DS4400-MalwareClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872509B9-3879-42F1-87C7-CAC502FDA9B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C367387E-B87C-4124-B495-10EABA039461}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{DA785DF7-8727-4DB1-8708-E7A5F74B287B}"/>
   </bookViews>
@@ -1773,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3A9D12-D820-4697-87B3-175F9E6985A9}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,13 +1844,414 @@
       <c r="G3">
         <v>0.56235100000000005</v>
       </c>
+      <c r="H3">
+        <v>0.75408900000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.56092600000000004</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>0.92957400000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.89135500000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.90851499999999996</v>
+      </c>
+      <c r="E4">
+        <v>0.86953800000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.89755499999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.85512100000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.889876</v>
+      </c>
+      <c r="I4">
+        <v>0.84291300000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.941743</v>
+      </c>
+      <c r="C5">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.92197700000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.88422900000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.90842800000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.87487000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.89954100000000004</v>
+      </c>
+      <c r="I5">
+        <v>0.860429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.94706500000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.91096999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.92818999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.89105500000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.91133399999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.88005500000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.90103500000000003</v>
+      </c>
+      <c r="I6">
+        <v>0.86449600000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.94833100000000004</v>
+      </c>
+      <c r="C7">
+        <v>0.91257999999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.93095099999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.894733</v>
+      </c>
+      <c r="F7">
+        <v>0.91268700000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.88282700000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.901841</v>
+      </c>
+      <c r="I7">
+        <v>0.86602199999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.94893499999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.91325599999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.93141099999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.89513200000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.91513199999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.88602899999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.90380099999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.87062499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>0.95348100000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.92710199999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.933253</v>
+      </c>
+      <c r="E9">
+        <v>0.892961</v>
+      </c>
+      <c r="F9">
+        <v>0.92422499999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.89896299999999996</v>
+      </c>
+      <c r="H9">
+        <v>0.89769100000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.85481200000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>0.95365299999999997</v>
+      </c>
+      <c r="C10">
+        <v>0.92891999999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.93302300000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.892258</v>
+      </c>
+      <c r="F10">
+        <v>0.92399500000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.89769399999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.89354900000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.84940400000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>0.95376799999999995</v>
+      </c>
+      <c r="C11">
+        <v>0.93022300000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.93371400000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.89771100000000004</v>
+      </c>
+      <c r="F11">
+        <v>0.92350699999999997</v>
+      </c>
+      <c r="G11">
+        <v>0.89633200000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.88929199999999997</v>
+      </c>
+      <c r="I11">
+        <v>0.839368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>300</v>
+      </c>
+      <c r="B12">
+        <v>0.95394100000000004</v>
+      </c>
+      <c r="C12">
+        <v>0.933558</v>
+      </c>
+      <c r="D12">
+        <v>0.93382900000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.89651099999999995</v>
+      </c>
+      <c r="F12">
+        <v>0.92445600000000006</v>
+      </c>
+      <c r="G12">
+        <v>0.89670899999999998</v>
+      </c>
+      <c r="H12">
+        <v>0.89078900000000005</v>
+      </c>
+      <c r="I12">
+        <v>0.83720899999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>325</v>
+      </c>
+      <c r="B13">
+        <v>0.95408499999999996</v>
+      </c>
+      <c r="C13">
+        <v>0.936338</v>
+      </c>
+      <c r="D13">
+        <v>0.93382900000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.89809399999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>400</v>
+      </c>
+      <c r="B15">
+        <v>0.95417099999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.93649300000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.93382900000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.89713500000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.92583700000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.89869200000000005</v>
+      </c>
+      <c r="H15">
+        <v>0.89148000000000005</v>
+      </c>
+      <c r="I15">
+        <v>0.841275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>500</v>
+      </c>
+      <c r="B16">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="C16">
+        <v>0.93654499999999996</v>
+      </c>
+      <c r="D16">
+        <v>0.93382900000000002</v>
+      </c>
+      <c r="E16">
+        <v>0.89602700000000002</v>
+      </c>
+      <c r="F16">
+        <v>0.92517400000000005</v>
+      </c>
+      <c r="G16">
+        <v>0.90061500000000005</v>
+      </c>
+      <c r="H16">
+        <v>0.890096</v>
+      </c>
+      <c r="I16">
+        <v>0.83973799999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>600</v>
+      </c>
+      <c r="B17">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="C17">
+        <v>0.93654499999999996</v>
+      </c>
+      <c r="D17">
+        <v>0.93382900000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.89481900000000003</v>
+      </c>
+      <c r="F17">
+        <v>0.92517400000000005</v>
+      </c>
+      <c r="G17">
+        <v>0.90004600000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.88917800000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.83734699999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>700</v>
+      </c>
+      <c r="B18">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="C18">
+        <v>0.93654499999999996</v>
+      </c>
+      <c r="D18">
+        <v>0.93371400000000004</v>
+      </c>
+      <c r="E18">
+        <v>0.89313299999999995</v>
+      </c>
+      <c r="F18">
+        <v>0.92505899999999996</v>
+      </c>
+      <c r="G18">
+        <v>0.90232100000000004</v>
+      </c>
+      <c r="H18">
+        <v>0.88825799999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.83679899999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Consolidated Output.xlsx
+++ b/Consolidated Output.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\DS4400-MalwareClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C367387E-B87C-4124-B495-10EABA039461}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9644983F-663F-456A-960B-F3D3A99A4371}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{DA785DF7-8727-4DB1-8708-E7A5F74B287B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" firstSheet="1" activeTab="3" xr2:uid="{DA785DF7-8727-4DB1-8708-E7A5F74B287B}"/>
   </bookViews>
   <sheets>
     <sheet name="Logistic Regression" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SVM (rbf kernel)" sheetId="2" r:id="rId2"/>
+    <sheet name="SVM (sigmoid kernel)" sheetId="3" r:id="rId3"/>
+    <sheet name="Decision Tree" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -49,13 +51,37 @@
     <t>TestF1</t>
   </si>
   <si>
-    <t xml:space="preserve">SVM </t>
-  </si>
-  <si>
     <t>Regularization</t>
   </si>
   <si>
     <t>cValue</t>
+  </si>
+  <si>
+    <t>SVM (rbf kernel)</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Information Gain &gt; 0.1</t>
+  </si>
+  <si>
+    <t>Information Gain &gt; 0.2</t>
+  </si>
+  <si>
+    <t>Information Gain &gt; 0.3</t>
+  </si>
+  <si>
+    <t>Information Gain &gt; 0.4</t>
+  </si>
+  <si>
+    <t>Information Gain &gt; 0.5</t>
+  </si>
+  <si>
+    <t>Information Gain &gt; 0.6</t>
+  </si>
+  <si>
+    <t>Information Gain &gt; 0.7</t>
   </si>
 </sst>
 </file>
@@ -405,6 +431,1130 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C77E-4D6B-B578-6A3448C62F05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1611609999"/>
+        <c:axId val="1607298223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1611609999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1607298223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1607298223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611609999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>F1 Score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SVM (rbf kernel)'!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SVM (rbf kernel)'!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.517119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86953800000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88422900000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89105500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.894733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89513200000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.892961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.892258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89771100000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89651099999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89809399999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89809399999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89713500000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89713500000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89713500000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89580199999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89580199999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89602700000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89481900000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89313299999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D522-4687-8FBC-429BDE44D8D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SVM (rbf kernel)'!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SVM (rbf kernel)'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.74453199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90851499999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92197700000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92818999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93095099999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93141099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.933253</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93302300000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93371400000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93382900000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93382900000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93382900000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93382900000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93382900000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93382900000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93371400000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93371400000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93382900000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93382900000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93371400000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D522-4687-8FBC-429BDE44D8D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1611609999"/>
+        <c:axId val="1607298223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1611609999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1607298223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1607298223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611609999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0233348840147719E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.89188189550704411"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>F1 Score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SVM (sigmoid kernel)'!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SVM (sigmoid kernel)'!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.56092600000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84291300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.860429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86449600000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86602199999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87062499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85481200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84940400000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.839368</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83720899999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83671600000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84224299999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.841275</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.839615</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84026000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83945599999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83973799999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83734699999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.83679899999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C74-49BE-8BC4-3D3AD77BCF39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SVM (sigmoid kernel)'!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SVM (sigmoid kernel)'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.75408900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.889876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89954100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90103500000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.901841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90380099999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89769100000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89354900000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88929199999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89078900000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89067399999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89182600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89067399999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89148000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89032699999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89044199999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88998100000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.890096</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88917800000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88825799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C74-49BE-8BC4-3D3AD77BCF39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -635,7 +1785,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1176,6 +3438,92 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF5312CA-46D4-4E93-A928-8ADF6F517A33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6E0150-1F54-4049-A581-C88E3A2EAABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1491,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13BA11F-17F9-4E14-A36E-9DAC90E4BB79}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +3859,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1773,14 +4121,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3A9D12-D820-4697-87B3-175F9E6985A9}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1788,14 +4137,14 @@
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1809,20 +4158,8 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -1838,20 +4175,8 @@
       <c r="E3">
         <v>0.517119</v>
       </c>
-      <c r="F3">
-        <v>0.75549500000000003</v>
-      </c>
-      <c r="G3">
-        <v>0.56235100000000005</v>
-      </c>
-      <c r="H3">
-        <v>0.75408900000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.56092600000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1867,20 +4192,8 @@
       <c r="E4">
         <v>0.86953800000000003</v>
       </c>
-      <c r="F4">
-        <v>0.89755499999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.85512100000000002</v>
-      </c>
-      <c r="H4">
-        <v>0.889876</v>
-      </c>
-      <c r="I4">
-        <v>0.84291300000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1896,20 +4209,8 @@
       <c r="E5">
         <v>0.88422900000000004</v>
       </c>
-      <c r="F5">
-        <v>0.90842800000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.87487000000000004</v>
-      </c>
-      <c r="H5">
-        <v>0.89954100000000004</v>
-      </c>
-      <c r="I5">
-        <v>0.860429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1925,20 +4226,8 @@
       <c r="E6">
         <v>0.89105500000000004</v>
       </c>
-      <c r="F6">
-        <v>0.91133399999999998</v>
-      </c>
-      <c r="G6">
-        <v>0.88005500000000003</v>
-      </c>
-      <c r="H6">
-        <v>0.90103500000000003</v>
-      </c>
-      <c r="I6">
-        <v>0.86449600000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1954,20 +4243,8 @@
       <c r="E7">
         <v>0.894733</v>
       </c>
-      <c r="F7">
-        <v>0.91268700000000003</v>
-      </c>
-      <c r="G7">
-        <v>0.88282700000000003</v>
-      </c>
-      <c r="H7">
-        <v>0.901841</v>
-      </c>
-      <c r="I7">
-        <v>0.86602199999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1983,20 +4260,8 @@
       <c r="E8">
         <v>0.89513200000000004</v>
       </c>
-      <c r="F8">
-        <v>0.91513199999999995</v>
-      </c>
-      <c r="G8">
-        <v>0.88602899999999996</v>
-      </c>
-      <c r="H8">
-        <v>0.90380099999999997</v>
-      </c>
-      <c r="I8">
-        <v>0.87062499999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100</v>
       </c>
@@ -2012,20 +4277,8 @@
       <c r="E9">
         <v>0.892961</v>
       </c>
-      <c r="F9">
-        <v>0.92422499999999996</v>
-      </c>
-      <c r="G9">
-        <v>0.89896299999999996</v>
-      </c>
-      <c r="H9">
-        <v>0.89769100000000002</v>
-      </c>
-      <c r="I9">
-        <v>0.85481200000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>150</v>
       </c>
@@ -2041,20 +4294,8 @@
       <c r="E10">
         <v>0.892258</v>
       </c>
-      <c r="F10">
-        <v>0.92399500000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.89769399999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.89354900000000004</v>
-      </c>
-      <c r="I10">
-        <v>0.84940400000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>200</v>
       </c>
@@ -2070,20 +4311,8 @@
       <c r="E11">
         <v>0.89771100000000004</v>
       </c>
-      <c r="F11">
-        <v>0.92350699999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.89633200000000002</v>
-      </c>
-      <c r="H11">
-        <v>0.88929199999999997</v>
-      </c>
-      <c r="I11">
-        <v>0.839368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>300</v>
       </c>
@@ -2099,20 +4328,8 @@
       <c r="E12">
         <v>0.89651099999999995</v>
       </c>
-      <c r="F12">
-        <v>0.92445600000000006</v>
-      </c>
-      <c r="G12">
-        <v>0.89670899999999998</v>
-      </c>
-      <c r="H12">
-        <v>0.89078900000000005</v>
-      </c>
-      <c r="I12">
-        <v>0.83720899999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>325</v>
       </c>
@@ -2129,20 +4346,32 @@
         <v>0.89809399999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>350</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.95408499999999996</v>
+      </c>
+      <c r="C14">
+        <v>0.936338</v>
+      </c>
+      <c r="D14">
+        <v>0.93382900000000002</v>
+      </c>
+      <c r="E14">
+        <v>0.89809399999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B15">
-        <v>0.95417099999999999</v>
+        <v>0.95408499999999996</v>
       </c>
       <c r="C15">
-        <v>0.93649300000000002</v>
+        <v>0.936338</v>
       </c>
       <c r="D15">
         <v>0.93382900000000002</v>
@@ -2150,80 +4379,44 @@
       <c r="E15">
         <v>0.89713500000000002</v>
       </c>
-      <c r="F15">
-        <v>0.92583700000000002</v>
-      </c>
-      <c r="G15">
-        <v>0.89869200000000005</v>
-      </c>
-      <c r="H15">
-        <v>0.89148000000000005</v>
-      </c>
-      <c r="I15">
-        <v>0.841275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B16">
-        <v>0.95420000000000005</v>
+        <v>0.95417099999999999</v>
       </c>
       <c r="C16">
-        <v>0.93654499999999996</v>
+        <v>0.93649300000000002</v>
       </c>
       <c r="D16">
         <v>0.93382900000000002</v>
       </c>
       <c r="E16">
-        <v>0.89602700000000002</v>
-      </c>
-      <c r="F16">
-        <v>0.92517400000000005</v>
-      </c>
-      <c r="G16">
-        <v>0.90061500000000005</v>
-      </c>
-      <c r="H16">
-        <v>0.890096</v>
-      </c>
-      <c r="I16">
-        <v>0.83973799999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.89713500000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>600</v>
+        <v>425</v>
       </c>
       <c r="B17">
-        <v>0.95420000000000005</v>
+        <v>0.95417099999999999</v>
       </c>
       <c r="C17">
-        <v>0.93654499999999996</v>
+        <v>0.93649300000000002</v>
       </c>
       <c r="D17">
         <v>0.93382900000000002</v>
       </c>
       <c r="E17">
-        <v>0.89481900000000003</v>
-      </c>
-      <c r="F17">
-        <v>0.92517400000000005</v>
-      </c>
-      <c r="G17">
-        <v>0.90004600000000001</v>
-      </c>
-      <c r="H17">
-        <v>0.88917800000000002</v>
-      </c>
-      <c r="I17">
-        <v>0.83734699999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.89713500000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="B18">
         <v>0.95420000000000005</v>
@@ -2235,23 +4428,566 @@
         <v>0.93371400000000004</v>
       </c>
       <c r="E18">
+        <v>0.89580199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>475</v>
+      </c>
+      <c r="B19">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="C19">
+        <v>0.93654499999999996</v>
+      </c>
+      <c r="D19">
+        <v>0.93371400000000004</v>
+      </c>
+      <c r="E19">
+        <v>0.89580199999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>500</v>
+      </c>
+      <c r="B20">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="C20">
+        <v>0.93654499999999996</v>
+      </c>
+      <c r="D20">
+        <v>0.93382900000000002</v>
+      </c>
+      <c r="E20">
+        <v>0.89602700000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>600</v>
+      </c>
+      <c r="B21">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="C21">
+        <v>0.93654499999999996</v>
+      </c>
+      <c r="D21">
+        <v>0.93382900000000002</v>
+      </c>
+      <c r="E21">
+        <v>0.89481900000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>700</v>
+      </c>
+      <c r="B22">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="C22">
+        <v>0.93654499999999996</v>
+      </c>
+      <c r="D22">
+        <v>0.93371400000000004</v>
+      </c>
+      <c r="E22">
         <v>0.89313299999999995</v>
-      </c>
-      <c r="F18">
-        <v>0.92505899999999996</v>
-      </c>
-      <c r="G18">
-        <v>0.90232100000000004</v>
-      </c>
-      <c r="H18">
-        <v>0.88825799999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.83679899999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB0CEB7-60A0-4DD3-B9CF-A22EA06EA025}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>0.75549500000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.56235100000000005</v>
+      </c>
+      <c r="D3">
+        <v>0.75408900000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.56092600000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.89755499999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.85512100000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.889876</v>
+      </c>
+      <c r="E4">
+        <v>0.84291300000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.90842800000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.87487000000000004</v>
+      </c>
+      <c r="D5">
+        <v>0.89954100000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.860429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.91133399999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.88005500000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.90103500000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.86449600000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.91268700000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.88282700000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.901841</v>
+      </c>
+      <c r="E7">
+        <v>0.86602199999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.91513199999999995</v>
+      </c>
+      <c r="C8">
+        <v>0.88602899999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.90380099999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.87062499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>0.92422499999999996</v>
+      </c>
+      <c r="C9">
+        <v>0.89896299999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.89769100000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.85481200000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>0.92399500000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.89769399999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.89354900000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.84940400000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>0.92350699999999997</v>
+      </c>
+      <c r="C11">
+        <v>0.89633200000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.88929199999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.839368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>300</v>
+      </c>
+      <c r="B12">
+        <v>0.92445600000000006</v>
+      </c>
+      <c r="C12">
+        <v>0.89670899999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.89078900000000005</v>
+      </c>
+      <c r="E12">
+        <v>0.83720899999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>325</v>
+      </c>
+      <c r="B13">
+        <v>0.92514600000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.897621</v>
+      </c>
+      <c r="D13">
+        <v>0.89067399999999997</v>
+      </c>
+      <c r="E13">
+        <v>0.83671600000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>350</v>
+      </c>
+      <c r="B14">
+        <v>0.92577900000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.89928900000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.89182600000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.84224299999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>375</v>
+      </c>
+      <c r="B15">
+        <v>0.92569299999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.89864299999999997</v>
+      </c>
+      <c r="D15">
+        <v>0.89067399999999997</v>
+      </c>
+      <c r="E15">
+        <v>0.84009999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>400</v>
+      </c>
+      <c r="B16">
+        <v>0.92583700000000002</v>
+      </c>
+      <c r="C16">
+        <v>0.89869200000000005</v>
+      </c>
+      <c r="D16">
+        <v>0.89148000000000005</v>
+      </c>
+      <c r="E16">
+        <v>0.841275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>425</v>
+      </c>
+      <c r="B17">
+        <v>0.92618199999999995</v>
+      </c>
+      <c r="C17">
+        <v>0.899034</v>
+      </c>
+      <c r="D17">
+        <v>0.89032699999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.839615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>450</v>
+      </c>
+      <c r="B18">
+        <v>0.92641200000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.90034000000000003</v>
+      </c>
+      <c r="D18">
+        <v>0.89044199999999996</v>
+      </c>
+      <c r="E18">
+        <v>0.84026000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>475</v>
+      </c>
+      <c r="B19">
+        <v>0.92638299999999996</v>
+      </c>
+      <c r="C19">
+        <v>0.90048899999999998</v>
+      </c>
+      <c r="D19">
+        <v>0.88998100000000002</v>
+      </c>
+      <c r="E19">
+        <v>0.83945599999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>500</v>
+      </c>
+      <c r="B20">
+        <v>0.92517400000000005</v>
+      </c>
+      <c r="C20">
+        <v>0.90061500000000005</v>
+      </c>
+      <c r="D20">
+        <v>0.890096</v>
+      </c>
+      <c r="E20">
+        <v>0.83973799999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>600</v>
+      </c>
+      <c r="B21">
+        <v>0.92517400000000005</v>
+      </c>
+      <c r="C21">
+        <v>0.90004600000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.88917800000000002</v>
+      </c>
+      <c r="E21">
+        <v>0.83734699999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>700</v>
+      </c>
+      <c r="B22">
+        <v>0.92505899999999996</v>
+      </c>
+      <c r="C22">
+        <v>0.90232100000000004</v>
+      </c>
+      <c r="D22">
+        <v>0.88825799999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.83679899999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C7B56B-BD35-4DBB-B715-F423A9E1FD63}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0.95431530494821604</v>
+      </c>
+      <c r="C2">
+        <v>0.93724977717892199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.95431530494821604</v>
+      </c>
+      <c r="C3">
+        <v>0.93724977717892199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.95431530494821604</v>
+      </c>
+      <c r="C4">
+        <v>0.93724977717892199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.95431530494821604</v>
+      </c>
+      <c r="C5">
+        <v>0.93724977717892199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.95431530494821604</v>
+      </c>
+      <c r="C6">
+        <v>0.93724977717892199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.95431530494821604</v>
+      </c>
+      <c r="C7">
+        <v>0.93724977717892199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.95431530494821604</v>
+      </c>
+      <c r="C8">
+        <v>0.93724583267918904</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Consolidated Output.xlsx
+++ b/Consolidated Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\DS4400-MalwareClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9644983F-663F-456A-960B-F3D3A99A4371}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0907E2-428C-436D-A9DE-D88584EA3BA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" firstSheet="1" activeTab="3" xr2:uid="{DA785DF7-8727-4DB1-8708-E7A5F74B287B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" firstSheet="1" activeTab="1" xr2:uid="{DA785DF7-8727-4DB1-8708-E7A5F74B287B}"/>
   </bookViews>
   <sheets>
     <sheet name="Logistic Regression" sheetId="1" r:id="rId1"/>
@@ -4123,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3A9D12-D820-4697-87B3-175F9E6985A9}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4500,6 +4500,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O4:O23">
+    <sortCondition descending="1" ref="O4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4895,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C7B56B-BD35-4DBB-B715-F423A9E1FD63}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Consolidated Output.xlsx
+++ b/Consolidated Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\DS4400-MalwareClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0907E2-428C-436D-A9DE-D88584EA3BA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E03F4A7-70AF-4F21-AE70-06ACB7584ED3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" firstSheet="1" activeTab="1" xr2:uid="{DA785DF7-8727-4DB1-8708-E7A5F74B287B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{DA785DF7-8727-4DB1-8708-E7A5F74B287B}"/>
   </bookViews>
   <sheets>
     <sheet name="Logistic Regression" sheetId="1" r:id="rId1"/>
@@ -188,10 +188,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Logistic Regression'!$A$3:$A$16</c:f>
+              <c:f>'Logistic Regression'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -205,33 +205,39 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -239,10 +245,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Logistic Regression'!$E$3:$E$16</c:f>
+              <c:f>'Logistic Regression'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.91315999999999997</c:v>
                 </c:pt>
@@ -259,30 +265,36 @@
                   <c:v>0.917188</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.917188</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.91403199999999996</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.91403199999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.91392600000000002</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.91232800000000003</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.91210999999999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.91330699999999998</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.91339499999999996</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0.91237199999999996</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>0.90763899999999997</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>0.90873700000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -327,10 +339,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Logistic Regression'!$A$3:$A$16</c:f>
+              <c:f>'Logistic Regression'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -344,33 +356,39 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -378,10 +396,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Logistic Regression'!$D$3:$D$16</c:f>
+              <c:f>'Logistic Regression'!$D$3:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.94625800000000004</c:v>
                 </c:pt>
@@ -398,30 +416,36 @@
                   <c:v>0.946488</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.946488</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.94625700000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.94625700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.94614200000000004</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.94602699999999995</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.94591199999999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.945797</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.945913</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0.94533599999999995</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>0.94499100000000003</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>0.94522099999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -3425,7 +3449,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3837,10 +3861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13BA11F-17F9-4E14-A36E-9DAC90E4BB79}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3944,13 +3968,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="B7">
-        <v>0.95420000000000005</v>
+        <v>0.95422899999999999</v>
       </c>
       <c r="C7">
-        <v>0.93654499999999996</v>
+        <v>0.93704799999999999</v>
       </c>
       <c r="D7">
         <v>0.946488</v>
@@ -3961,7 +3985,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B8">
         <v>0.95420000000000005</v>
@@ -3970,15 +3994,15 @@
         <v>0.93654499999999996</v>
       </c>
       <c r="D8">
-        <v>0.94625700000000001</v>
+        <v>0.946488</v>
       </c>
       <c r="E8">
-        <v>0.91403199999999996</v>
+        <v>0.917188</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B9">
         <v>0.95420000000000005</v>
@@ -3987,128 +4011,162 @@
         <v>0.93654499999999996</v>
       </c>
       <c r="D9">
-        <v>0.94614200000000004</v>
+        <v>0.94625700000000001</v>
       </c>
       <c r="E9">
-        <v>0.91392600000000002</v>
+        <v>0.91403199999999996</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="B10">
-        <v>0.95417099999999999</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="C10">
-        <v>0.93599699999999997</v>
+        <v>0.93654499999999996</v>
       </c>
       <c r="D10">
-        <v>0.94602699999999995</v>
+        <v>0.94625700000000001</v>
       </c>
       <c r="E10">
-        <v>0.91232800000000003</v>
+        <v>0.91403199999999996</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="B11">
-        <v>0.95396999999999998</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="C11">
-        <v>0.93211999999999995</v>
+        <v>0.93654499999999996</v>
       </c>
       <c r="D11">
-        <v>0.94591199999999998</v>
+        <v>0.94614200000000004</v>
       </c>
       <c r="E11">
-        <v>0.91210999999999998</v>
+        <v>0.91392600000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="B12">
-        <v>0.95379700000000001</v>
+        <v>0.95417099999999999</v>
       </c>
       <c r="C12">
-        <v>0.93079400000000001</v>
+        <v>0.93599699999999997</v>
       </c>
       <c r="D12">
-        <v>0.945797</v>
+        <v>0.94602699999999995</v>
       </c>
       <c r="E12">
-        <v>0.91330699999999998</v>
+        <v>0.91232800000000003</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="B13">
-        <v>0.95376799999999995</v>
+        <v>0.95396999999999998</v>
       </c>
       <c r="C13">
-        <v>0.93022300000000002</v>
+        <v>0.93211999999999995</v>
       </c>
       <c r="D13">
-        <v>0.945913</v>
+        <v>0.94591199999999998</v>
       </c>
       <c r="E13">
-        <v>0.91339499999999996</v>
+        <v>0.91210999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B14">
-        <v>0.95374000000000003</v>
+        <v>0.95379700000000001</v>
       </c>
       <c r="C14">
-        <v>0.93016500000000002</v>
+        <v>0.93079400000000001</v>
       </c>
       <c r="D14">
-        <v>0.94533599999999995</v>
+        <v>0.945797</v>
       </c>
       <c r="E14">
-        <v>0.91237199999999996</v>
+        <v>0.91330699999999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="B15">
-        <v>0.95350900000000005</v>
+        <v>0.95376799999999995</v>
       </c>
       <c r="C15">
-        <v>0.92539499999999997</v>
+        <v>0.93022300000000002</v>
       </c>
       <c r="D15">
-        <v>0.94499100000000003</v>
+        <v>0.945913</v>
       </c>
       <c r="E15">
-        <v>0.90763899999999997</v>
+        <v>0.91339499999999996</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>0.1</v>
+      </c>
+      <c r="B16">
+        <v>0.95374000000000003</v>
+      </c>
+      <c r="C16">
+        <v>0.93016500000000002</v>
+      </c>
+      <c r="D16">
+        <v>0.94533599999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.91237199999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.05</v>
+      </c>
+      <c r="B17">
+        <v>0.95350900000000005</v>
+      </c>
+      <c r="C17">
+        <v>0.92539499999999997</v>
+      </c>
+      <c r="D17">
+        <v>0.94499100000000003</v>
+      </c>
+      <c r="E17">
+        <v>0.90763899999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>0.01</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>0.95198499999999997</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>0.91786800000000002</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>0.94522099999999998</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>0.90873700000000002</v>
       </c>
     </row>
@@ -4123,7 +4181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3A9D12-D820-4697-87B3-175F9E6985A9}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>

--- a/Consolidated Output.xlsx
+++ b/Consolidated Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\DS4400-MalwareClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E03F4A7-70AF-4F21-AE70-06ACB7584ED3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAED110-86C9-4793-82E6-5EC93618E65C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{DA785DF7-8727-4DB1-8708-E7A5F74B287B}"/>
   </bookViews>
@@ -188,10 +188,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Logistic Regression'!$A$3:$A$18</c:f>
+              <c:f>'Logistic Regression'!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -208,36 +208,48 @@
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -245,10 +257,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Logistic Regression'!$E$3:$E$18</c:f>
+              <c:f>'Logistic Regression'!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.91315999999999997</c:v>
                 </c:pt>
@@ -268,33 +280,45 @@
                   <c:v>0.917188</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.917188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.917188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.917188</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.917188</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.91403199999999996</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>0.91403199999999996</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>0.91392600000000002</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>0.91232800000000003</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>0.91210999999999998</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>0.91330699999999998</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>0.91339499999999996</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>0.91237199999999996</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>0.90763899999999997</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>0.90873700000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -339,10 +363,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Logistic Regression'!$A$3:$A$18</c:f>
+              <c:f>'Logistic Regression'!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -359,36 +383,48 @@
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -396,10 +432,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Logistic Regression'!$D$3:$D$18</c:f>
+              <c:f>'Logistic Regression'!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.94625800000000004</c:v>
                 </c:pt>
@@ -419,33 +455,45 @@
                   <c:v>0.946488</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.946488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.946488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.946488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.946488</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.94625700000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>0.94625700000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>0.94614200000000004</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>0.94602699999999995</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>0.94591199999999998</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>0.945797</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>0.945913</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>0.94533599999999995</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>0.94499100000000003</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>0.94522099999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1597,6 +1645,7 @@
         <c:axId val="1611609999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1659,6 +1708,7 @@
         <c:axId val="1607298223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1719,7 +1769,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -3449,7 +3499,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3861,10 +3911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13BA11F-17F9-4E14-A36E-9DAC90E4BB79}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,13 +4035,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="B8">
-        <v>0.95420000000000005</v>
+        <v>0.95422899999999999</v>
       </c>
       <c r="C8">
-        <v>0.93654499999999996</v>
+        <v>0.93704799999999999</v>
       </c>
       <c r="D8">
         <v>0.946488</v>
@@ -4002,7 +4052,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="B9">
         <v>0.95420000000000005</v>
@@ -4011,15 +4061,15 @@
         <v>0.93654499999999996</v>
       </c>
       <c r="D9">
-        <v>0.94625700000000001</v>
+        <v>0.946488</v>
       </c>
       <c r="E9">
-        <v>0.91403199999999996</v>
+        <v>0.917188</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="B10">
         <v>0.95420000000000005</v>
@@ -4028,15 +4078,15 @@
         <v>0.93654499999999996</v>
       </c>
       <c r="D10">
-        <v>0.94625700000000001</v>
+        <v>0.946488</v>
       </c>
       <c r="E10">
-        <v>0.91403199999999996</v>
+        <v>0.917188</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="B11">
         <v>0.95420000000000005</v>
@@ -4045,128 +4095,196 @@
         <v>0.93654499999999996</v>
       </c>
       <c r="D11">
-        <v>0.94614200000000004</v>
+        <v>0.946488</v>
       </c>
       <c r="E11">
-        <v>0.91392600000000002</v>
+        <v>0.917188</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="B12">
-        <v>0.95417099999999999</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="C12">
-        <v>0.93599699999999997</v>
+        <v>0.93654499999999996</v>
       </c>
       <c r="D12">
-        <v>0.94602699999999995</v>
+        <v>0.946488</v>
       </c>
       <c r="E12">
-        <v>0.91232800000000003</v>
+        <v>0.917188</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B13">
-        <v>0.95396999999999998</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="C13">
-        <v>0.93211999999999995</v>
+        <v>0.93654499999999996</v>
       </c>
       <c r="D13">
-        <v>0.94591199999999998</v>
+        <v>0.94625700000000001</v>
       </c>
       <c r="E13">
-        <v>0.91210999999999998</v>
+        <v>0.91403199999999996</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="B14">
-        <v>0.95379700000000001</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="C14">
-        <v>0.93079400000000001</v>
+        <v>0.93654499999999996</v>
       </c>
       <c r="D14">
-        <v>0.945797</v>
+        <v>0.94625700000000001</v>
       </c>
       <c r="E14">
-        <v>0.91330699999999998</v>
+        <v>0.91403199999999996</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="B15">
-        <v>0.95376799999999995</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="C15">
-        <v>0.93022300000000002</v>
+        <v>0.93654499999999996</v>
       </c>
       <c r="D15">
-        <v>0.945913</v>
+        <v>0.94614200000000004</v>
       </c>
       <c r="E15">
-        <v>0.91339499999999996</v>
+        <v>0.91392600000000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="B16">
-        <v>0.95374000000000003</v>
+        <v>0.95417099999999999</v>
       </c>
       <c r="C16">
-        <v>0.93016500000000002</v>
+        <v>0.93599699999999997</v>
       </c>
       <c r="D16">
-        <v>0.94533599999999995</v>
+        <v>0.94602699999999995</v>
       </c>
       <c r="E16">
-        <v>0.91237199999999996</v>
+        <v>0.91232800000000003</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="B17">
-        <v>0.95350900000000005</v>
+        <v>0.95396999999999998</v>
       </c>
       <c r="C17">
-        <v>0.92539499999999997</v>
+        <v>0.93211999999999995</v>
       </c>
       <c r="D17">
-        <v>0.94499100000000003</v>
+        <v>0.94591199999999998</v>
       </c>
       <c r="E17">
-        <v>0.90763899999999997</v>
+        <v>0.91210999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>0.2</v>
+      </c>
+      <c r="B18">
+        <v>0.95379700000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.93079400000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.945797</v>
+      </c>
+      <c r="E18">
+        <v>0.91330699999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.15</v>
+      </c>
+      <c r="B19">
+        <v>0.95376799999999995</v>
+      </c>
+      <c r="C19">
+        <v>0.93022300000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.945913</v>
+      </c>
+      <c r="E19">
+        <v>0.91339499999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.1</v>
+      </c>
+      <c r="B20">
+        <v>0.95374000000000003</v>
+      </c>
+      <c r="C20">
+        <v>0.93016500000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.94533599999999995</v>
+      </c>
+      <c r="E20">
+        <v>0.91237199999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.05</v>
+      </c>
+      <c r="B21">
+        <v>0.95350900000000005</v>
+      </c>
+      <c r="C21">
+        <v>0.92539499999999997</v>
+      </c>
+      <c r="D21">
+        <v>0.94499100000000003</v>
+      </c>
+      <c r="E21">
+        <v>0.90763899999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>0.01</v>
       </c>
-      <c r="B18">
+      <c r="B22">
         <v>0.95198499999999997</v>
       </c>
-      <c r="C18">
+      <c r="C22">
         <v>0.91786800000000002</v>
       </c>
-      <c r="D18">
+      <c r="D22">
         <v>0.94522099999999998</v>
       </c>
-      <c r="E18">
+      <c r="E22">
         <v>0.90873700000000002</v>
       </c>
     </row>
@@ -4182,7 +4300,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="D13:E13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4572,7 +4690,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Consolidated Output.xlsx
+++ b/Consolidated Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\DS4400-MalwareClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAED110-86C9-4793-82E6-5EC93618E65C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88806BD3-1BA2-4527-82AC-C36A7CA34624}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{DA785DF7-8727-4DB1-8708-E7A5F74B287B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="2" xr2:uid="{DA785DF7-8727-4DB1-8708-E7A5F74B287B}"/>
   </bookViews>
   <sheets>
     <sheet name="Logistic Regression" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Information Gain &gt; 0.7</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>SVM (sigmoid kernel)</t>
   </si>
 </sst>
 </file>
@@ -3913,7 +3922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13BA11F-17F9-4E14-A36E-9DAC90E4BB79}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4300,7 +4309,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4689,8 +4698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB0CEB7-60A0-4DD3-B9CF-A22EA06EA025}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4704,7 +4713,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5075,7 +5084,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5088,6 +5097,12 @@
       <c r="A1" t="s">
         <v>8</v>
       </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
